--- a/medicine/Enfance/Les_Dix_Jours_impossibles/Les_Dix_Jours_impossibles.xlsx
+++ b/medicine/Enfance/Les_Dix_Jours_impossibles/Les_Dix_Jours_impossibles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Dix Jours impossibles est le neuvième et dernier roman de la série Les Évadés du temps écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1988 chez Hachette dans la collection Bibliothèque verte.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aller voir ce qui se passait à l'époque des Trois Mousquetaires était certes intéressant mais Thierry devait avoir une idée bien précise derrière la tête...
 Aucun d'entre eux néanmoins ne se doutait encore que leur compagnon avait tout simplement décidé de se glisser dans le peau d'un des plus célèbres personnages de l'Histoire de France.
@@ -544,7 +558,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1988 : Hachette, coll. : Bibliothèque verte, souple. Illustrations de Richard Martens. 156 p.  (ISBN 2-01-012434-0),  (EAN 9782010124341)</t>
         </is>
